--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30920" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30924" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
@@ -384,30 +384,29 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -457,7 +456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -507,7 +506,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="30924" windowHeight="7836"/>
   </bookViews>
   <sheets>
-    <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>sigma_exploitation</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>imitation_fail_rate</t>
+  </si>
+  <si>
+    <t>cost_exploration</t>
+  </si>
+  <si>
+    <t>cost_exploitation</t>
+  </si>
+  <si>
+    <t>cost_imitation</t>
   </si>
 </sst>
 </file>
@@ -381,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +415,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -441,22 +450,31 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -491,69 +509,28 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N2">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.1</v>
+      </c>
+      <c r="R2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.7</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
+      <c r="S2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0.8</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="Q2">
         <v>0.1</v>
@@ -530,7 +530,7 @@
         <v>0.9</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Aspiration\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30924" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30930" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -393,29 +393,29 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -474,7 +474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -515,13 +515,13 @@
         <v>0.8</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <v>0.1</v>
@@ -530,7 +530,7 @@
         <v>0.9</v>
       </c>
       <c r="S2">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -530,6 +530,65 @@
         <v>0.9</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <v>0.9</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
     </row>

--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -1,78 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30930" windowHeight="7830"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>number_of_run</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>agent_num</t>
+  </si>
+  <si>
+    <t>market_strategy</t>
+  </si>
+  <si>
+    <t>market_profit_mean</t>
+  </si>
+  <si>
+    <t>market_profit_sigma</t>
+  </si>
+  <si>
+    <t>aspiration_update_strategy</t>
+  </si>
+  <si>
+    <t>historical_aspiration_update_param</t>
+  </si>
+  <si>
+    <t>social_aspiration_update_param</t>
+  </si>
+  <si>
+    <t>initial_technology</t>
+  </si>
+  <si>
+    <t>mean_exploration</t>
+  </si>
+  <si>
+    <t>sigma_exploration</t>
+  </si>
+  <si>
+    <t>cost_exploration</t>
+  </si>
   <si>
     <t>sigma_exploitation</t>
   </si>
   <si>
-    <t>mean_exploration</t>
-  </si>
-  <si>
-    <t>sigma_exploration</t>
-  </si>
-  <si>
-    <t>market_profit_mean</t>
-  </si>
-  <si>
-    <t>market_profit_sigma</t>
-  </si>
-  <si>
-    <t>initial_technology</t>
-  </si>
-  <si>
-    <t>number_of_run</t>
-  </si>
-  <si>
-    <t>periods</t>
-  </si>
-  <si>
-    <t>agent_num</t>
+    <t>cost_exploitation</t>
   </si>
   <si>
     <t>imitation_share</t>
   </si>
   <si>
-    <t>historical_aspiration_update_param</t>
-  </si>
-  <si>
-    <t>social_aspiration_update_param</t>
-  </si>
-  <si>
-    <t>aspiration_update_strategy</t>
-  </si>
-  <si>
-    <t>market_strategy</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>imitation_fail_rate</t>
-  </si>
-  <si>
-    <t>cost_exploration</t>
-  </si>
-  <si>
-    <t>cost_exploitation</t>
   </si>
   <si>
     <t>cost_imitation</t>
@@ -81,22 +76,366 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,24 +443,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -205,7 +830,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,102 +1004,94 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.2890625" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="8" width="18.4296875" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="14" width="16.2890625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -533,67 +1150,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.8</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>0.1</v>
-      </c>
-      <c r="R3">
-        <v>0.9</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="21600" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -104,7 +104,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -112,16 +171,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,87 +217,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,15 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,25 +256,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,97 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,26 +444,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +483,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,173 +537,149 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,8 +1012,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1102,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0.1</v>
       </c>
       <c r="R2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="S2">
         <v>2</v>

--- a/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/simulator_scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="13220"/>
+    <workbookView windowWidth="30240" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,15 +91,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -107,14 +144,23 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -122,89 +168,29 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +198,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -220,23 +206,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -250,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,8 +447,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,21 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,30 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -532,160 +541,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -693,55 +693,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1008,12 +1008,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>100</v>
